--- a/tables/strengthening_national_security.xlsx
+++ b/tables/strengthening_national_security.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF7FDE-8337-4624-BBD3-C4641E13947D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>№</t>
   </si>
@@ -95,13 +94,151 @@
   </si>
   <si>
     <t xml:space="preserve">% </t>
+  </si>
+  <si>
+    <t>46,0</t>
+  </si>
+  <si>
+    <t>47,0</t>
+  </si>
+  <si>
+    <t>37,74</t>
+  </si>
+  <si>
+    <t>48,0</t>
+  </si>
+  <si>
+    <t>49,0</t>
+  </si>
+  <si>
+    <t>49,5</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>21,5</t>
+  </si>
+  <si>
+    <t>19,9</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>16,6</t>
+  </si>
+  <si>
+    <t>15,0</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>6,1</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>64,3</t>
+  </si>
+  <si>
+    <t>67,5</t>
+  </si>
+  <si>
+    <t>70,6</t>
+  </si>
+  <si>
+    <t>73,7</t>
+  </si>
+  <si>
+    <t>76,9</t>
+  </si>
+  <si>
+    <t>80,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,16 +246,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5DFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -126,12 +334,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -192,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -227,7 +566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -404,306 +743,382 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="25.5" thickBot="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2020</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="1:14" ht="25.5" thickBot="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:14" ht="147" thickBot="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="102.75" thickBot="1">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="35.25" thickBot="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="136.5" thickBot="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="80.25" thickBot="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E3">
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F3">
-        <v>37.74</v>
-      </c>
-      <c r="G3">
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="57.75" thickBot="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I3">
+      <c r="E8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K3">
-        <v>49.5</v>
-      </c>
-      <c r="M3">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="11"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>23.1</v>
-      </c>
-      <c r="E4">
-        <v>21.5</v>
-      </c>
-      <c r="G4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I4">
-        <v>18.2</v>
-      </c>
-      <c r="K4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="M4">
-        <v>15</v>
-      </c>
+    <row r="9" spans="1:14" ht="80.25" thickBot="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
+    <row r="10" spans="1:14" ht="80.25" thickBot="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="11"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>7.8</v>
-      </c>
-      <c r="E6">
-        <v>7.2</v>
-      </c>
-      <c r="G6">
-        <v>6.7</v>
-      </c>
-      <c r="I6">
-        <v>6.1</v>
-      </c>
-      <c r="K6">
-        <v>5.6</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>0.8</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
-      <c r="G7">
-        <v>0.7</v>
-      </c>
-      <c r="I7">
-        <v>0.6</v>
-      </c>
-      <c r="K7">
-        <v>0.6</v>
-      </c>
-      <c r="M7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>3.7</v>
-      </c>
-      <c r="E8">
-        <v>3.4</v>
-      </c>
-      <c r="G8">
-        <v>3.2</v>
-      </c>
-      <c r="I8">
-        <v>2.9</v>
-      </c>
-      <c r="K8">
-        <v>2.6</v>
-      </c>
-      <c r="M8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>1.9</v>
-      </c>
-      <c r="I9">
-        <v>1.7</v>
-      </c>
-      <c r="K9">
-        <v>1.6</v>
-      </c>
-      <c r="M9">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>1.4</v>
-      </c>
-      <c r="E10">
-        <v>1.3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>1.2</v>
-      </c>
-      <c r="I10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:14" ht="91.5" thickBot="1">
+      <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
-        <v>64.3</v>
-      </c>
-      <c r="E11">
-        <v>67.5</v>
-      </c>
-      <c r="G11">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="I11">
-        <v>73.7</v>
-      </c>
-      <c r="K11">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="M11">
-        <v>80</v>
-      </c>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
